--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_DLNgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_DLNgocKimAnh.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="97">
   <si>
     <t>STT</t>
   </si>
@@ -307,6 +307,27 @@
   </si>
   <si>
     <t>203.162.69.75,30031</t>
+  </si>
+  <si>
+    <t>112.213.94.88,31001</t>
+  </si>
+  <si>
+    <t>Thiết bị mất cấu hình</t>
+  </si>
+  <si>
+    <t>203.162.69.57,20005</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi GPS</t>
+  </si>
+  <si>
+    <t>Set lại cấu hình, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>MCH, NCFW</t>
+  </si>
+  <si>
+    <t>Set lại baudrate, nâng cấp FW</t>
   </si>
 </sst>
 </file>
@@ -2871,8 +2892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3388,12 +3409,22 @@
       <c r="L11" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="39"/>
+      <c r="M11" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
       <c r="U11" s="68"/>
@@ -3535,16 +3566,32 @@
       <c r="H14" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="53"/>
+      <c r="I14" s="53" t="s">
+        <v>92</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="K14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="37"/>
+      <c r="O14" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
       <c r="U14" s="68"/>
@@ -3574,16 +3621,32 @@
       <c r="H15" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="53"/>
+      <c r="I15" s="53" t="s">
+        <v>90</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="K15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="37"/>
+      <c r="O15" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
       <c r="U15" s="68"/>
@@ -3717,16 +3780,34 @@
         <v>70</v>
       </c>
       <c r="H18" s="48"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="9"/>
+      <c r="I18" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>94</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="9"/>
+      <c r="O18" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="37" t="s">
+        <v>95</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -3752,16 +3833,30 @@
         <v>70</v>
       </c>
       <c r="H19" s="48"/>
-      <c r="I19" s="53"/>
+      <c r="I19" s="53" t="s">
+        <v>84</v>
+      </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="37"/>
+      <c r="M19" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
       <c r="U19" s="62" t="s">
@@ -3808,7 +3903,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3831,16 +3926,30 @@
         <v>70</v>
       </c>
       <c r="H21" s="48"/>
-      <c r="I21" s="53"/>
+      <c r="I21" s="53" t="s">
+        <v>84</v>
+      </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="9"/>
+      <c r="O21" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="13"/>
       <c r="U21" s="9" t="s">
@@ -3871,16 +3980,34 @@
         <v>70</v>
       </c>
       <c r="H22" s="48"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="9"/>
+      <c r="I22" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="13"/>
       <c r="U22" s="9" t="s">
@@ -3921,12 +4048,22 @@
       <c r="L23" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="9"/>
+      <c r="M23" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S23" s="3"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
@@ -4213,7 +4350,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -4309,7 +4446,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4373,7 +4510,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="W37" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_DLNgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_DLNgocKimAnh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102E" sheetId="41" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="102">
   <si>
     <t>STT</t>
   </si>
@@ -328,6 +328,21 @@
   </si>
   <si>
     <t>Set lại baudrate, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thiết bị oxi hóa mạch</t>
+  </si>
+  <si>
+    <t>Không khắc phục được</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.290317</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
   </si>
 </sst>
 </file>
@@ -733,30 +748,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -774,6 +765,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1117,43 +1132,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1198,58 +1213,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1274,23 +1289,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1332,7 +1347,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1371,7 +1386,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1400,7 +1415,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1429,7 +1444,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1458,7 +1473,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1487,7 +1502,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1516,7 +1531,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1547,7 +1562,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1576,7 +1591,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1605,7 +1620,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1634,7 +1649,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2864,6 +2879,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2875,13 +2897,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2892,8 +2907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2925,43 +2940,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -3006,58 +3021,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -3082,23 +3097,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3150,7 +3165,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3207,7 +3222,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3262,7 +3277,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3317,7 +3332,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3372,7 +3387,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3427,7 +3442,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3482,7 +3497,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3539,7 +3554,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3594,7 +3609,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3649,7 +3664,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3704,7 +3719,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3887,15 +3902,27 @@
       </c>
       <c r="H20" s="48"/>
       <c r="I20" s="53"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="9"/>
+      <c r="O20" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
@@ -3957,7 +3984,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4318,7 +4345,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4510,7 +4537,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4628,7 +4655,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -5089,13 +5116,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5107,6 +5127,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5117,8 +5144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5150,43 +5177,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -5231,58 +5258,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -5307,23 +5334,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5345,10 +5372,16 @@
         <v>70</v>
       </c>
       <c r="H6" s="48"/>
-      <c r="I6" s="53"/>
+      <c r="I6" s="53" t="s">
+        <v>84</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="39"/>
+      <c r="K6" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>101</v>
+      </c>
       <c r="M6" s="39" t="s">
         <v>67</v>
       </c>
@@ -5369,7 +5402,7 @@
         <v>65</v>
       </c>
       <c r="T6" s="63"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5400,7 +5433,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5429,7 +5462,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5458,7 +5491,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5487,7 +5520,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5516,7 +5549,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5545,7 +5578,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5576,7 +5609,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5605,7 +5638,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5634,7 +5667,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5663,7 +5696,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6893,13 +6926,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6911,6 +6937,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6954,43 +6987,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -7035,58 +7068,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -7111,23 +7144,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="75"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="67"/>
       <c r="P5" s="81"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="74"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7153,7 +7186,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7184,7 +7217,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7213,7 +7246,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7242,7 +7275,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7271,7 +7304,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7300,7 +7333,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7329,7 +7362,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7360,7 +7393,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7389,7 +7422,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7418,7 +7451,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7447,7 +7480,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8678,13 +8711,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8696,6 +8722,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_DLNgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_DLNgocKimAnh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102E" sheetId="41" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="106">
   <si>
     <t>STT</t>
   </si>
@@ -343,6 +343,18 @@
   </si>
   <si>
     <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200520</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>Set lại cấu hình</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
   </si>
 </sst>
 </file>
@@ -1099,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1327,11 +1339,17 @@
         <v>70</v>
       </c>
       <c r="H6" s="48"/>
-      <c r="I6" s="53"/>
+      <c r="I6" s="53" t="s">
+        <v>103</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
         <v>61</v>
@@ -1374,16 +1392,32 @@
         <v>70</v>
       </c>
       <c r="H7" s="48"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>104</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
       <c r="U7" s="76"/>
@@ -1767,7 +1801,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2140,7 +2174,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -2300,7 +2334,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2907,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H27" activeCellId="1" sqref="F23 H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5144,8 +5178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="G13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_DLNgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_DLNgocKimAnh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102E" sheetId="41" r:id="rId1"/>
@@ -760,6 +760,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,30 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1111,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1144,43 +1144,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1225,58 +1225,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1301,23 +1301,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1327,7 +1327,9 @@
       <c r="B6" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44670</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
@@ -1365,7 +1367,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1380,7 +1382,9 @@
       <c r="B7" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44670</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>45</v>
       </c>
@@ -1420,7 +1424,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1449,7 +1453,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1478,7 +1482,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1507,7 +1511,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1536,7 +1540,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1565,7 +1569,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1596,7 +1600,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1625,7 +1629,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1654,7 +1658,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1683,7 +1687,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2913,13 +2917,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2931,6 +2928,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2941,8 +2945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H27" activeCellId="1" sqref="F23 H27"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2974,43 +2978,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -3055,58 +3059,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -3131,23 +3135,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3157,7 +3161,9 @@
       <c r="B6" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44670</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -3199,7 +3205,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3214,7 +3220,9 @@
       <c r="B7" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44670</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -3256,7 +3264,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3269,7 +3277,9 @@
       <c r="B8" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44670</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -3311,7 +3321,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3324,7 +3334,9 @@
       <c r="B9" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="61">
+        <v>44670</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
@@ -3366,7 +3378,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3379,7 +3391,9 @@
       <c r="B10" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="61">
+        <v>44670</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>44</v>
       </c>
@@ -3421,7 +3435,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3434,7 +3448,9 @@
       <c r="B11" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="61">
+        <v>44670</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>44</v>
       </c>
@@ -3476,7 +3492,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3489,7 +3505,9 @@
       <c r="B12" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="61">
+        <v>44670</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>44</v>
       </c>
@@ -3531,7 +3549,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3546,7 +3564,9 @@
       <c r="B13" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="61">
+        <v>44670</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>44</v>
       </c>
@@ -3588,7 +3608,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3601,7 +3621,9 @@
       <c r="B14" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="61">
+        <v>44670</v>
+      </c>
       <c r="D14" s="37" t="s">
         <v>44</v>
       </c>
@@ -3643,7 +3665,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3656,7 +3678,9 @@
       <c r="B15" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="61">
+        <v>44670</v>
+      </c>
       <c r="D15" s="37" t="s">
         <v>44</v>
       </c>
@@ -3698,7 +3722,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3711,7 +3735,9 @@
       <c r="B16" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="61">
+        <v>44670</v>
+      </c>
       <c r="D16" s="37" t="s">
         <v>44</v>
       </c>
@@ -3753,7 +3779,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3766,7 +3792,9 @@
       <c r="B17" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="61"/>
+      <c r="C17" s="61">
+        <v>44670</v>
+      </c>
       <c r="D17" s="37" t="s">
         <v>44</v>
       </c>
@@ -3817,7 +3845,9 @@
       <c r="B18" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="61">
+        <v>44670</v>
+      </c>
       <c r="D18" s="37" t="s">
         <v>44</v>
       </c>
@@ -3870,7 +3900,9 @@
       <c r="B19" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="61">
+        <v>44670</v>
+      </c>
       <c r="D19" s="37" t="s">
         <v>44</v>
       </c>
@@ -3923,7 +3955,9 @@
       <c r="B20" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="61">
+        <v>44670</v>
+      </c>
       <c r="D20" s="37" t="s">
         <v>44</v>
       </c>
@@ -3975,7 +4009,9 @@
       <c r="B21" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="61">
+        <v>44670</v>
+      </c>
       <c r="D21" s="37" t="s">
         <v>44</v>
       </c>
@@ -4029,7 +4065,9 @@
       <c r="B22" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="61">
+        <v>44670</v>
+      </c>
       <c r="D22" s="37" t="s">
         <v>44</v>
       </c>
@@ -4087,7 +4125,9 @@
       <c r="B23" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="61">
+        <v>44670</v>
+      </c>
       <c r="D23" s="37" t="s">
         <v>44</v>
       </c>
@@ -5150,6 +5190,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5161,13 +5208,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5178,8 +5218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="G13:J13"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5211,43 +5251,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -5292,58 +5332,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -5368,23 +5408,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5394,7 +5434,9 @@
       <c r="B6" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44670</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>63</v>
       </c>
@@ -5436,7 +5478,7 @@
         <v>65</v>
       </c>
       <c r="T6" s="63"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5467,7 +5509,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5496,7 +5538,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5525,7 +5567,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5554,7 +5596,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5583,7 +5625,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5612,7 +5654,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5643,7 +5685,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5672,7 +5714,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5701,7 +5743,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5730,7 +5772,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6960,6 +7002,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6971,13 +7020,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7021,43 +7063,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -7102,58 +7144,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -7178,23 +7220,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="81"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7220,7 +7262,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7251,7 +7293,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7280,7 +7322,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7309,7 +7351,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7338,7 +7380,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7367,7 +7409,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7396,7 +7438,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7427,7 +7469,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7456,7 +7498,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7485,7 +7527,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7514,7 +7556,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8745,6 +8787,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8756,13 +8805,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
